--- a/pickle/rolling_corr_excel_target_index_상해종합_simulation_term_type_2_window_size_30.xlsx
+++ b/pickle/rolling_corr_excel_target_index_상해종합_simulation_term_type_2_window_size_30.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>상해종합_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>상해종합_CNY/USD</t>
   </si>
   <si>
-    <t>상해종합_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>상해종합_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>상해종합_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>상해종합_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_OECD 소비자물가</t>
   </si>
   <si>
-    <t>상해종합_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>상해종합_두바이유가</t>
   </si>
   <si>
-    <t>상해종합_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>상해종합_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>상해종합_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>상해종합_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>상해종합_미국 REER</t>
   </si>
   <si>
-    <t>상해종합_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>상해종합_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>상해종합_발틱 해운임지수</t>
   </si>
   <si>
-    <t>상해종합_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>상해종합_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>상해종합_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>상해종합_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>상해종합_유로존 Core CPI</t>
   </si>
   <si>
-    <t>상해종합_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>상해종합_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>상해종합_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>상해종합_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>상해종합_일본 ESI</t>
   </si>
   <si>
-    <t>상해종합_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_일본 REER</t>
   </si>
   <si>
-    <t>상해종합_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>상해종합_중국 M1 YoY</t>
   </si>
   <si>
-    <t>상해종합_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>상해종합_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>상해종합_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,915 +1893,765 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -2885,7 +2660,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2894,169 +2669,169 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
         <v>3</v>
       </c>
-      <c r="O3" t="n">
+      <c r="BJ3" t="n">
         <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
       </c>
       <c r="BK3" t="n">
         <v>0</v>
@@ -3071,64 +2846,64 @@
         <v>0</v>
       </c>
       <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
         <v>3</v>
       </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>1</v>
-      </c>
       <c r="CH3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI3" t="n">
         <v>0</v>
@@ -3137,64 +2912,64 @@
         <v>0</v>
       </c>
       <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" t="n">
         <v>2</v>
       </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>3</v>
-      </c>
       <c r="CS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DC3" t="n">
         <v>2</v>
       </c>
       <c r="DD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DE3" t="n">
         <v>0</v>
@@ -3203,112 +2978,112 @@
         <v>0</v>
       </c>
       <c r="DG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH3" t="n">
         <v>3</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL3" t="n">
         <v>2</v>
       </c>
-      <c r="DI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="n">
+      <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" t="n">
         <v>3</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="ED3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="EI3" t="n">
         <v>3</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="EJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" t="n">
         <v>2</v>
       </c>
-      <c r="DN3" t="n">
-        <v>2</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>2</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>1</v>
-      </c>
       <c r="EO3" t="n">
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EQ3" t="n">
         <v>2</v>
@@ -3317,49 +3092,49 @@
         <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="ET3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EY3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>0</v>
       </c>
       <c r="FC3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FD3" t="n">
         <v>2</v>
       </c>
       <c r="FE3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG3" t="n">
         <v>3</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
       </c>
       <c r="FH3" t="n">
         <v>3</v>
@@ -3368,34 +3143,34 @@
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FK3" t="n">
+        <v>2</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" t="n">
         <v>3</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0</v>
       </c>
       <c r="FR3" t="n">
         <v>2</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT3" t="n">
         <v>0</v>
@@ -3404,116 +3179,116 @@
         <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FW3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
         <v>3</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM3" t="n">
         <v>2</v>
       </c>
-      <c r="GB3" t="n">
+      <c r="GN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ3" t="n">
         <v>2</v>
       </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
+      <c r="HA3" t="n">
         <v>3</v>
       </c>
-      <c r="GG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GI3" t="n">
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
         <v>3</v>
       </c>
-      <c r="GJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF3" t="n">
         <v>3</v>
       </c>
-      <c r="GN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>0</v>
-      </c>
       <c r="HG3" t="n">
         <v>0</v>
       </c>
@@ -3521,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="HI3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HJ3" t="n">
         <v>3</v>
@@ -3533,43 +3308,43 @@
         <v>3</v>
       </c>
       <c r="HM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HN3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HO3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HP3" t="n">
         <v>3</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HR3" t="n">
         <v>0</v>
       </c>
       <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
         <v>3</v>
       </c>
-      <c r="HT3" t="n">
-        <v>1</v>
-      </c>
       <c r="HU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY3" t="n">
         <v>3</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>2</v>
       </c>
       <c r="HZ3" t="n">
         <v>3</v>
@@ -3581,17 +3356,17 @@
         <v>2</v>
       </c>
       <c r="IC3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="ID3" t="n">
         <v>0</v>
       </c>
       <c r="IE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF3" t="n">
         <v>3</v>
       </c>
-      <c r="IF3" t="n">
-        <v>0</v>
-      </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
@@ -3602,927 +3377,777 @@
         <v>0</v>
       </c>
       <c r="IJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL3" t="n">
         <v>3</v>
       </c>
-      <c r="IK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>0</v>
-      </c>
       <c r="IM3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO3" t="n">
         <v>0</v>
       </c>
       <c r="IP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.5179735156933132</v>
+        <v>-0.6670424252517591</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3960505207746561</v>
+        <v>0.5393998000981367</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6380089154395321</v>
+        <v>0.7824490133154821</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5817514599984622</v>
+        <v>0.2550089034528925</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4593652553443822</v>
+        <v>0.7180471633991015</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2110064705367023</v>
+        <v>0.608243549304514</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5552935986976709</v>
+        <v>0.4178697719752072</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5168651992308155</v>
+        <v>0.6030996031703244</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5097658730755131</v>
+        <v>0.2112701302789402</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4840702999460966</v>
+        <v>0.6273563648805629</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4390926741566577</v>
+        <v>-0.8182566654078751</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4435367795484313</v>
+        <v>0.5511117476535619</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4178718656423008</v>
+        <v>-0.8512728656500704</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5993782289933498</v>
+        <v>0.4901955879858891</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5051247334397341</v>
+        <v>0.4594155663883285</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4574601303951101</v>
+        <v>0.4927444140322844</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.43487210764425</v>
+        <v>0.3669799940751469</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4572400261242158</v>
+        <v>0.3920633049841573</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.5361017838193</v>
+        <v>0.1903717877775448</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5783695093100224</v>
+        <v>0.6155866008659518</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5925120762589504</v>
+        <v>0.6323907501316293</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3655061301847818</v>
+        <v>0.5680697808663263</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3063794041761616</v>
+        <v>0.6307789667759032</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6055585819418128</v>
+        <v>0.3799504683392524</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.3660584273847019</v>
+        <v>0.6816536249141584</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5347428496143961</v>
+        <v>0.4446379662879494</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.5919644044346989</v>
+        <v>0.6264962226146529</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.4950398915401553</v>
+        <v>0.3558595750348313</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.4621420551916804</v>
+        <v>0.6012283156393335</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1881834870751695</v>
+        <v>0.4817781099428827</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.599968075242217</v>
+        <v>0.3228607464745243</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5179257162078158</v>
+        <v>0.6150407651517018</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.4585086305261831</v>
+        <v>0.2508646439770238</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5513098181636147</v>
+        <v>0.6157361234201444</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.5183109330300549</v>
+        <v>-0.3843061123392342</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.5266070575008869</v>
+        <v>0.6311718475074818</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6401139294109333</v>
+        <v>-0.3954461933774535</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.4546803205041955</v>
+        <v>-0.6027314930598362</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.3233110192338809</v>
+        <v>-0.4478361939075663</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.5480217405498117</v>
+        <v>0.6447813560375216</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.3725570002005159</v>
+        <v>0.4233908123238148</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.5635251080619836</v>
+        <v>-0.526763526515468</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.3442560865142575</v>
+        <v>-0.7498950576213962</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.7024311096167828</v>
+        <v>0.5770854639856382</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.4661618274796956</v>
+        <v>0.5429885317802523</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.5435510708032809</v>
+        <v>0.5409144860488602</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.3633050075529253</v>
+        <v>0.5464857557754698</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.4609078332071675</v>
+        <v>0.6232914271576685</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.4858124560449475</v>
+        <v>0.5877340804034599</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.5836358821938575</v>
+        <v>0.5261063482704026</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.5999742211445722</v>
+        <v>0.530710440224859</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.6232037158786956</v>
+        <v>0.5686619503450261</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.6125696279173787</v>
+        <v>0.513685125344203</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.5577956687705308</v>
+        <v>0.1712098201105527</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.5682828572751721</v>
+        <v>0.6261010074909803</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.6067621969690037</v>
+        <v>0.6405868696342351</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.6303237714604839</v>
+        <v>0.5089740199503614</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.6534556749412885</v>
+        <v>-0.3123886868345854</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.7301887967981396</v>
+        <v>0.5886839695124148</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.5568693511476926</v>
+        <v>-0.1862072242214081</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.7894149244270475</v>
+        <v>0.597809754082064</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.622009754177272</v>
+        <v>0.3321332362636613</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.3500936492524994</v>
+        <v>0.5883348999634607</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.5832107069787187</v>
+        <v>0.2283991280068093</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.3999777049705992</v>
+        <v>0.4909754787402835</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.4434991932263582</v>
+        <v>0.1752346407232739</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.315595659490205</v>
+        <v>0.5300735425358447</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.4217936258577201</v>
+        <v>0.7723047905657149</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.3155331850479499</v>
+        <v>0.4094984442769722</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.5391122114652709</v>
+        <v>0.5153285709615346</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.457366591650721</v>
+        <v>0.7464978923642211</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.3967625459407724</v>
+        <v>0.8072023898916478</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.2386001584436729</v>
+        <v>0.6327994627274166</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.5698752497495402</v>
+        <v>0.7145830540132593</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.437909103387015</v>
+        <v>-0.8069997690233077</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.600289248261926</v>
+        <v>-0.4534279737568807</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.4903469261528401</v>
+        <v>0.2589526454204802</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.5750193746808111</v>
+        <v>0.5735098925730736</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.5844687737916007</v>
+        <v>0.1835425114844406</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.6907675995165748</v>
+        <v>0.7069316720752093</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.6486777283845518</v>
+        <v>0.7205924294090245</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.7516636430468656</v>
+        <v>0.7231863836904439</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.7716358657949829</v>
+        <v>0.3453816559700606</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.6065985324463568</v>
+        <v>-0.7543662783972233</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.4191756966483283</v>
+        <v>0.2039018762441693</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.6003110330455885</v>
+        <v>0.6249186094531232</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.7429599191896112</v>
+        <v>0.2954370853526028</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.5150301208412873</v>
+        <v>0.6479991074648448</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.8414821981819935</v>
+        <v>0.2348440283346852</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.6725628390186746</v>
+        <v>0.7114747635477952</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.3953356062705166</v>
+        <v>0.4110599390253203</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.397608997568475</v>
+        <v>-0.4875183224343204</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.3590537813455636</v>
+        <v>0.2851439133581613</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.5330061432899185</v>
+        <v>0.3497469121461869</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.5214300792500963</v>
+        <v>0.1639403421306553</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.1702478269366016</v>
+        <v>0.6627706190221372</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.5556429230504891</v>
+        <v>0.2831920587868915</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.2422725311041432</v>
+        <v>0.5717238767629531</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.5339087589929017</v>
+        <v>0.7462498204575928</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.4905181303410993</v>
+        <v>0.5609725124174036</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.2405481681682718</v>
+        <v>0.2111883701702922</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.6604398458145948</v>
+        <v>-0.237988732969596</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.4586218079167911</v>
+        <v>0.1811836107039145</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.3179918024672829</v>
+        <v>0.5671585597713528</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.576726959643589</v>
+        <v>0.689615231697367</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.210775313706365</v>
+        <v>-0.6281059097493512</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.5941206523728084</v>
+        <v>0.5660800044144483</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.509851900826347</v>
+        <v>0.7312983688324124</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.5091817224638671</v>
+        <v>-0.1880833089996463</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.3993147708060792</v>
+        <v>0.2792420565358</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.2966084448353207</v>
+        <v>0.4094061259519361</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.3134858726900059</v>
+        <v>0.3809336175654717</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.6843464128335069</v>
+        <v>-0.7460000022921592</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.6312030016491654</v>
+        <v>0.3839275291398767</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.1455356656421573</v>
+        <v>0.5449608098864696</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.4512275324572567</v>
+        <v>-0.2571268522075714</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.4214679714442527</v>
+        <v>0.5669015770614952</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.2355821892962957</v>
+        <v>-0.2174489557439481</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.5963332165461372</v>
+        <v>-0.4264714902904032</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.602388323921638</v>
+        <v>0.4110599390253203</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.459310522445801</v>
+        <v>0.3194079044220762</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.2363251651947382</v>
+        <v>0.4269754945276495</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.2335873171334331</v>
+        <v>0.3519424260770887</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.6177159800357183</v>
+        <v>0.2407045004337594</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.2979347748459626</v>
+        <v>0.3492079132440471</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.3967448537369293</v>
+        <v>0.6940475188464742</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.5087687082029512</v>
+        <v>-0.6732381369965332</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.535792295996705</v>
+        <v>0.430688675604578</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.6431299041443944</v>
+        <v>0.4340759049718093</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2753580273594884</v>
+        <v>0.5569335242202449</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.365420922873284</v>
+        <v>0.5072949068298708</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.4729742334099003</v>
+        <v>0.3572907329882343</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.4905181303410993</v>
+        <v>-0.4917253119197622</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.4962783966054166</v>
+        <v>-0.2102917746784501</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.6010954754107918</v>
+        <v>-0.1507823499057253</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.6455239756500614</v>
+        <v>0.128209600037497</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.5363409686673566</v>
+        <v>0.4732935560060981</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.5520336681444918</v>
+        <v>-0.4302695428559061</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.5979914980307784</v>
+        <v>0.3753468485070691</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.6634979500733118</v>
+        <v>0.5714153421671436</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.5911432097963373</v>
+        <v>0.5431274072475782</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.3553102271280109</v>
+        <v>0.5754994472648278</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.4795427278990944</v>
+        <v>0.4857933618582896</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.598391811745535</v>
+        <v>-0.4881815491666193</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.4517404235175588</v>
+        <v>0.2722010858258516</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.4178523529248517</v>
+        <v>0.1985046406541231</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.5775857565936361</v>
+        <v>0.1095245970448872</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.3396846663825025</v>
+        <v>-0.6860642585504166</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.5689826675365673</v>
+        <v>-0.225753767193028</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.6299124843058519</v>
+        <v>-0.6769886669771832</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.1602230676730539</v>
+        <v>0.3693630518477489</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.3756064947684034</v>
+        <v>0.5445852117875597</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.598963529178326</v>
+        <v>0.5667079971607227</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.5172555114074824</v>
+        <v>0.6155665472586878</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.336711006658813</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.5030122258747441</v>
+        <v>0.9564517182120129</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.6275104846379835</v>
+        <v>-0.6281426404944926</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.4274598052404789</v>
+        <v>0.6273563648805629</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.1223924019011942</v>
+        <v>0.6276187420103662</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.5001748417801761</v>
+        <v>0.6279699693118949</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.5701279989753224</v>
+        <v>0.4045209683006957</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.4712611491325428</v>
+        <v>0.2833924095296768</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.5399835451680817</v>
+        <v>0.533294124239334</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.3358166668639281</v>
+        <v>0.09436061966763978</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.5206731189912975</v>
+        <v>0.2034781457253363</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.6361083486539183</v>
+        <v>0.2507258952534504</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.4813752314433899</v>
+        <v>0.4037381654892568</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.4236004162959732</v>
+        <v>0.5412515698943483</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.7428291881154935</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.9610092549390071</v>
+        <v>-0.2083485692394588</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.583365129116009</v>
+        <v>-0.7459875388025816</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.4574601303951101</v>
+        <v>0.3627692344912887</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.5514588165860268</v>
+        <v>0.3447314821915122</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.583624656719104</v>
+        <v>0.6606420461392183</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.2925613552261404</v>
+        <v>0.1378874866771203</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.2582960004500942</v>
+        <v>0.5412515698943483</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.4716544091168536</v>
+        <v>0.8090252165061396</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.1228568387725499</v>
+        <v>0.4165515128597204</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.2030063451117777</v>
+        <v>0.5204823581747368</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.36789066181083</v>
+        <v>-0.7631163756958532</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.6415061593817523</v>
+        <v>0.415524931638001</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.4434412959873184</v>
+        <v>-0.3490667353460385</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.3359292630542743</v>
+        <v>0.7065239721306524</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.5921940624073374</v>
+        <v>0.5539043008230208</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.7802885937839793</v>
+        <v>0.4018781075350772</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.3597971871352619</v>
+        <v>0.5821805281837802</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.2196629700432167</v>
+        <v>0.3736650628615937</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.567945687250702</v>
+        <v>0.3133222909900275</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.4070619297491244</v>
+        <v>0.4124941915913079</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.3504696489743917</v>
+        <v>-0.3779098283632991</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.5694365994521911</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.4600949118622666</v>
+        <v>-0.2893959670134297</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.5921940624073374</v>
+        <v>0.3175889740511161</v>
       </c>
       <c r="GM4" t="n">
-        <v>-0.1967060097851919</v>
+        <v>0.5978677146673733</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.5532133199156339</v>
+        <v>0.7336806638809302</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.583216484406697</v>
+        <v>-0.8346254033997306</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.5800734001427417</v>
+        <v>-0.5805037048173087</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.4324623116189257</v>
+        <v>8.460271695666875e-17</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.2848981657496503</v>
+        <v>8.460271695666875e-17</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.7285548600659917</v>
+        <v>0.5584629827136438</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.526437028683204</v>
+        <v>0.4704822472936822</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.6161785127298026</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.5604055857223247</v>
+        <v>-0.216498332067649</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.5760035129029795</v>
+        <v>0.4813367718271359</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.4316973371419586</v>
+        <v>0.3715517335979366</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.5489088534236211</v>
+        <v>0.6239923649398749</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.6142202601824726</v>
+        <v>-0.3794626116649518</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.33758800438561</v>
+        <v>0.6880975788513763</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.6136840464265639</v>
+        <v>0.4186728154337334</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.466421621873829</v>
+        <v>-0.3722093459248387</v>
       </c>
       <c r="HD4" t="n">
-        <v>0.4087886741080929</v>
+        <v>-0.2776736169421943</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.3290613642596474</v>
+        <v>0.6416774417664319</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.1398392914525325</v>
+        <v>0.4382504465351628</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.4128381717622399</v>
+        <v>0.6683592913371185</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.4060304360415009</v>
+        <v>0.5022084623802388</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.4910388748512052</v>
+        <v>-0.3320746727780896</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.4266844680311409</v>
+        <v>0.5442255107325316</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.3130276590584541</v>
+        <v>-0.6827168513883285</v>
       </c>
       <c r="HL4" t="n">
-        <v>0.4087886741080927</v>
+        <v>0.6407775746319646</v>
       </c>
       <c r="HM4" t="n">
-        <v>0.4087886741080927</v>
+        <v>0.4368575041611648</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.4953112683290094</v>
+        <v>0.1350126988314197</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.5179458063572928</v>
+        <v>0.2914747358507032</v>
       </c>
       <c r="HP4" t="n">
-        <v>0.4087886741080929</v>
+        <v>0.2717921957051969</v>
       </c>
       <c r="HQ4" t="n">
-        <v>-0.1701218167895297</v>
+        <v>-0.1122085754787612</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.4332414077734594</v>
+        <v>-0.6860355583633351</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.4466574842495583</v>
+        <v>0.4075128747116446</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.3879960875474662</v>
+        <v>-0.4083731982510657</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.3178812869962168</v>
+        <v>0.7049754694661842</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.4374723202479331</v>
+        <v>0.6685843094806582</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.4642673888764627</v>
+        <v>0.6530334698818003</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.3243764065728735</v>
+        <v>0.7273408339206864</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.4109733623000612</v>
+        <v>0.6794254303467645</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.4628106557583172</v>
+        <v>0.412896296050075</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.5371608035330702</v>
+        <v>-0.4518542704594964</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.1926857663651733</v>
+        <v>0.1576325473407442</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.4005566467308377</v>
+        <v>0.566200941606731</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.5310648000211374</v>
+        <v>-0.3117478638168961</v>
       </c>
       <c r="IE4" t="n">
-        <v>0.2789658791167985</v>
+        <v>0.5644867722619668</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.5946352262273441</v>
+        <v>0.1478391306374859</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.4766597917809049</v>
+        <v>-0.6156670197229976</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.4500081341740971</v>
+        <v>-0.1465412716259164</v>
       </c>
       <c r="II4" t="n">
-        <v>0.2568670422618524</v>
+        <v>0.5644867722619668</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.3742774927369001</v>
+        <v>0.7423623988292622</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.1972642312379351</v>
+        <v>-0.3993511269246419</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.7283245367683246</v>
+        <v>0.256746293094646</v>
       </c>
       <c r="IM4" t="n">
-        <v>0.1000693479969126</v>
+        <v>0.4920557919704708</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.1773347212895208</v>
+        <v>-0.5283009791411265</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.1482360250640923</v>
+        <v>0.6556921209709375</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.1060854579519353</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.4858799089279538</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.4460690032092904</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.336276472134502</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.6247768446861423</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.5620802055946683</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.4232376126486181</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.4887722453795041</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.5652728983083201</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>0.4153277125471495</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.4446447948047588</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.164191603343774</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.1079555667987215</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.4113148373424322</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.5511828193587318</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.2479251161874632</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.4376440497620401</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.1768790184963528</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.5511828193587318</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.497134471664493</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.1196990535368628</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.3054612083297462</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.3288925309075628</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.4257314826992066</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.7347612723707272</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.8230702661056705</v>
+        <v>0.8446036683841738</v>
       </c>
     </row>
   </sheetData>
